--- a/medicine/Pharmacie/Toripalimab/Toripalimab.xlsx
+++ b/medicine/Pharmacie/Toripalimab/Toripalimab.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le toripalimab est un anticorps monoclonal dirigé contre la protéine Programmed cell death 1 (ou PD1) et utilisé dans le traitement de certains cancers. Il s'agit d'un inhibiteur de point de contrôle.
 </t>
@@ -511,10 +523,12 @@
           <t>Efficacité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En association avec une chimiothérapie, il augmente la durée de rémission des cancers des voies aéro-digestives supérieures, dans les formes récidivantes ou métastatiques[1].
-Dans le mélanome métastatique, dans sa forme asiatique, il permet d'obtenir une réponse, parfois complète[2]. Il est en cours de test dans le carcinome urothélial avec de bons résultats[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En association avec une chimiothérapie, il augmente la durée de rémission des cancers des voies aéro-digestives supérieures, dans les formes récidivantes ou métastatiques.
+Dans le mélanome métastatique, dans sa forme asiatique, il permet d'obtenir une réponse, parfois complète. Il est en cours de test dans le carcinome urothélial avec de bons résultats.
 </t>
         </is>
       </c>
